--- a/src/setups/poly_electrolyte/config/Opentrons coordinates.xlsx
+++ b/src/setups/poly_electrolyte/config/Opentrons coordinates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leongcj\Desktop\Astar_git\polylectric\src\robotics\dobot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leongcj\Desktop\Astar_git\control-lab-le\src\setups\poly_electrolyte\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BDF88C-3974-45E8-A44D-306F650DE445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9C7555-0D22-4A10-858F-E1C5EC4FD317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{696EA749-D632-4547-ACEE-F7E2B618F858}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,16 +435,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>blueprint!B2-blueprint!$B$3</f>
-        <v>184.36999499999999</v>
+        <f>blueprint!B2-blueprint!$B$2</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>(-1)*(blueprint!D2-blueprint!$D$3)</f>
-        <v>204.34693899999999</v>
+        <f>(-1)*(blueprint!D2-blueprint!$D$2)</f>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>blueprint!C2-blueprint!$C$3</f>
-        <v>0.25</v>
+        <f>blueprint!C2-blueprint!$C$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>blueprint!B3-blueprint!$B$3</f>
-        <v>0</v>
+        <f>blueprint!B3-blueprint!$B$2</f>
+        <v>13.130005000000011</v>
       </c>
       <c r="C3">
-        <f>(-1)*(blueprint!D3-blueprint!$D$3)</f>
-        <v>0</v>
+        <f>(-1)*(blueprint!D3-blueprint!$D$2)</f>
+        <v>9</v>
       </c>
       <c r="D3">
-        <f>blueprint!C3-blueprint!$C$3</f>
-        <v>0</v>
+        <f>blueprint!C3-blueprint!$C$2</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -471,16 +471,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>blueprint!B4-blueprint!$B$3</f>
-        <v>183.37903599999999</v>
+        <f>blueprint!B4-blueprint!$B$2</f>
+        <v>196.509041</v>
       </c>
       <c r="C4">
-        <f>(-1)*(blueprint!D4-blueprint!$D$3)</f>
-        <v>27.631118999999984</v>
+        <f>(-1)*(blueprint!D4-blueprint!$D$2)</f>
+        <v>36.631118999999984</v>
       </c>
       <c r="D4">
-        <f>blueprint!C4-blueprint!$C$3</f>
-        <v>0.25</v>
+        <f>blueprint!C4-blueprint!$C$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -489,16 +489,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>blueprint!B5-blueprint!$B$3</f>
-        <v>368.73998999999998</v>
+        <f>blueprint!B5-blueprint!$B$2</f>
+        <v>381.86999500000002</v>
       </c>
       <c r="C5">
-        <f>(-1)*(blueprint!D5-blueprint!$D$3)</f>
-        <v>0</v>
+        <f>(-1)*(blueprint!D5-blueprint!$D$2)</f>
+        <v>9</v>
       </c>
       <c r="D5">
-        <f>blueprint!C5-blueprint!$C$3</f>
-        <v>0</v>
+        <f>blueprint!C5-blueprint!$C$2</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -507,16 +507,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>blueprint!B6-blueprint!$B$3</f>
-        <v>0</v>
+        <f>blueprint!B6-blueprint!$B$2</f>
+        <v>13.130005000000011</v>
       </c>
       <c r="C6">
-        <f>(-1)*(blueprint!D6-blueprint!$D$3)</f>
-        <v>90.499999999999986</v>
+        <f>(-1)*(blueprint!D6-blueprint!$D$2)</f>
+        <v>99.499999999999986</v>
       </c>
       <c r="D6">
-        <f>blueprint!C6-blueprint!$C$3</f>
-        <v>0</v>
+        <f>blueprint!C6-blueprint!$C$2</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -525,16 +525,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>blueprint!B7-blueprint!$B$3</f>
-        <v>183.73826</v>
+        <f>blueprint!B7-blueprint!$B$2</f>
+        <v>196.86826500000001</v>
       </c>
       <c r="C7">
-        <f>(-1)*(blueprint!D7-blueprint!$D$3)</f>
-        <v>135.51786799999999</v>
+        <f>(-1)*(blueprint!D7-blueprint!$D$2)</f>
+        <v>144.51786799999999</v>
       </c>
       <c r="D7">
-        <f>blueprint!C7-blueprint!$C$3</f>
-        <v>0.25</v>
+        <f>blueprint!C7-blueprint!$C$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -543,16 +543,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>blueprint!B8-blueprint!$B$3</f>
-        <v>368.73998999999998</v>
+        <f>blueprint!B8-blueprint!$B$2</f>
+        <v>381.86999500000002</v>
       </c>
       <c r="C8">
-        <f>(-1)*(blueprint!D8-blueprint!$D$3)</f>
-        <v>90.499999999999986</v>
+        <f>(-1)*(blueprint!D8-blueprint!$D$2)</f>
+        <v>99.499999999999986</v>
       </c>
       <c r="D8">
-        <f>blueprint!C8-blueprint!$C$3</f>
-        <v>0</v>
+        <f>blueprint!C8-blueprint!$C$2</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -561,16 +561,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>blueprint!B9-blueprint!$B$3</f>
-        <v>0</v>
+        <f>blueprint!B9-blueprint!$B$2</f>
+        <v>13.130005000000011</v>
       </c>
       <c r="C9">
-        <f>(-1)*(blueprint!D9-blueprint!$D$3)</f>
-        <v>249</v>
+        <f>(-1)*(blueprint!D9-blueprint!$D$2)</f>
+        <v>258</v>
       </c>
       <c r="D9">
-        <f>blueprint!C9-blueprint!$C$3</f>
-        <v>0</v>
+        <f>blueprint!C9-blueprint!$C$2</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -579,16 +579,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>blueprint!B10-blueprint!$B$3</f>
-        <v>178.51982699999999</v>
+        <f>blueprint!B10-blueprint!$B$2</f>
+        <v>191.649832</v>
       </c>
       <c r="C10">
-        <f>(-1)*(blueprint!D10-blueprint!$D$3)</f>
-        <v>218.57339899999999</v>
+        <f>(-1)*(blueprint!D10-blueprint!$D$2)</f>
+        <v>227.57339899999999</v>
       </c>
       <c r="D10">
-        <f>blueprint!C10-blueprint!$C$3</f>
-        <v>0.25</v>
+        <f>blueprint!C10-blueprint!$C$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -597,16 +597,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>blueprint!B11-blueprint!$B$3</f>
-        <v>368.73998999999998</v>
+        <f>blueprint!B11-blueprint!$B$2</f>
+        <v>381.86999500000002</v>
       </c>
       <c r="C11">
-        <f>(-1)*(blueprint!D11-blueprint!$D$3)</f>
-        <v>249</v>
+        <f>(-1)*(blueprint!D11-blueprint!$D$2)</f>
+        <v>258</v>
       </c>
       <c r="D11">
-        <f>blueprint!C11-blueprint!$C$3</f>
-        <v>0</v>
+        <f>blueprint!C11-blueprint!$C$2</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -615,16 +615,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>blueprint!B12-blueprint!$B$3</f>
-        <v>0</v>
+        <f>blueprint!B12-blueprint!$B$2</f>
+        <v>13.130005000000011</v>
       </c>
       <c r="C12">
-        <f>(-1)*(blueprint!D12-blueprint!$D$3)</f>
-        <v>339.5</v>
+        <f>(-1)*(blueprint!D12-blueprint!$D$2)</f>
+        <v>348.5</v>
       </c>
       <c r="D12">
-        <f>blueprint!C12-blueprint!$C$3</f>
-        <v>0</v>
+        <f>blueprint!C12-blueprint!$C$2</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -633,16 +633,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f>blueprint!B13-blueprint!$B$3</f>
-        <v>236.239994</v>
+        <f>blueprint!B13-blueprint!$B$2</f>
+        <v>249.36999900000001</v>
       </c>
       <c r="C13">
-        <f>(-1)*(blueprint!D13-blueprint!$D$3)</f>
-        <v>339.5</v>
+        <f>(-1)*(blueprint!D13-blueprint!$D$2)</f>
+        <v>348.5</v>
       </c>
       <c r="D13">
-        <f>blueprint!C13-blueprint!$C$3</f>
-        <v>0</v>
+        <f>blueprint!C13-blueprint!$C$2</f>
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-197.5</v>
       </c>
       <c r="C2">
         <v>-268.625</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>213.34693899999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">

--- a/src/setups/poly_electrolyte/config/Opentrons coordinates.xlsx
+++ b/src/setups/poly_electrolyte/config/Opentrons coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leongcj\Desktop\Astar_git\control-lab-le\src\setups\poly_electrolyte\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9C7555-0D22-4A10-858F-E1C5EC4FD317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD08C9FE-0A36-4776-BDDC-4D61E5B67E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{696EA749-D632-4547-ACEE-F7E2B618F858}"/>
   </bookViews>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48172A5-D4B7-4DDD-BAB2-C2ED829E5B7A}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,11 +450,11 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>blueprint!A3</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B3">
         <f>blueprint!B3-blueprint!$B$2</f>
-        <v>13.130005000000011</v>
+        <v>12.130005000000011</v>
       </c>
       <c r="C3">
         <f>(-1)*(blueprint!D3-blueprint!$D$2)</f>
@@ -468,11 +468,11 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>blueprint!A4</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B4">
         <f>blueprint!B4-blueprint!$B$2</f>
-        <v>196.509041</v>
+        <v>195.509041</v>
       </c>
       <c r="C4">
         <f>(-1)*(blueprint!D4-blueprint!$D$2)</f>
@@ -486,11 +486,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>blueprint!A5</f>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B5">
         <f>blueprint!B5-blueprint!$B$2</f>
-        <v>381.86999500000002</v>
+        <v>380.86999500000002</v>
       </c>
       <c r="C5">
         <f>(-1)*(blueprint!D5-blueprint!$D$2)</f>
@@ -504,11 +504,11 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>blueprint!A6</f>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="B6">
         <f>blueprint!B6-blueprint!$B$2</f>
-        <v>13.130005000000011</v>
+        <v>12.130005000000011</v>
       </c>
       <c r="C6">
         <f>(-1)*(blueprint!D6-blueprint!$D$2)</f>
@@ -522,11 +522,11 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>blueprint!A7</f>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="B7">
         <f>blueprint!B7-blueprint!$B$2</f>
-        <v>196.86826500000001</v>
+        <v>195.86826500000001</v>
       </c>
       <c r="C7">
         <f>(-1)*(blueprint!D7-blueprint!$D$2)</f>
@@ -540,11 +540,11 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>blueprint!A8</f>
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="B8">
         <f>blueprint!B8-blueprint!$B$2</f>
-        <v>381.86999500000002</v>
+        <v>380.86999500000002</v>
       </c>
       <c r="C8">
         <f>(-1)*(blueprint!D8-blueprint!$D$2)</f>
@@ -558,11 +558,11 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>blueprint!A9</f>
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="B9">
         <f>blueprint!B9-blueprint!$B$2</f>
-        <v>13.130005000000011</v>
+        <v>12.130005000000011</v>
       </c>
       <c r="C9">
         <f>(-1)*(blueprint!D9-blueprint!$D$2)</f>
@@ -576,11 +576,11 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>blueprint!A10</f>
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="B10">
         <f>blueprint!B10-blueprint!$B$2</f>
-        <v>191.649832</v>
+        <v>190.649832</v>
       </c>
       <c r="C10">
         <f>(-1)*(blueprint!D10-blueprint!$D$2)</f>
@@ -594,11 +594,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>blueprint!A11</f>
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="B11">
         <f>blueprint!B11-blueprint!$B$2</f>
-        <v>381.86999500000002</v>
+        <v>380.86999500000002</v>
       </c>
       <c r="C11">
         <f>(-1)*(blueprint!D11-blueprint!$D$2)</f>
@@ -612,11 +612,11 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>blueprint!A12</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="B12">
         <f>blueprint!B12-blueprint!$B$2</f>
-        <v>13.130005000000011</v>
+        <v>12.130005000000011</v>
       </c>
       <c r="C12">
         <f>(-1)*(blueprint!D12-blueprint!$D$2)</f>
@@ -630,11 +630,11 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>blueprint!A13</f>
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="B13">
         <f>blueprint!B13-blueprint!$B$2</f>
-        <v>249.36999900000001</v>
+        <v>248.36999900000001</v>
       </c>
       <c r="C13">
         <f>(-1)*(blueprint!D13-blueprint!$D$2)</f>
@@ -643,6 +643,402 @@
       <c r="D13">
         <f>blueprint!C13-blueprint!$C$2</f>
         <v>-0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f>blueprint!A14</f>
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>blueprint!B14-blueprint!$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>(-1)*(blueprint!D14-blueprint!$D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>blueprint!C14-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f>blueprint!A15</f>
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <f>blueprint!B15-blueprint!$B$2</f>
+        <v>132.5</v>
+      </c>
+      <c r="C15">
+        <f>(-1)*(blueprint!D15-blueprint!$D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>blueprint!C15-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f>blueprint!A16</f>
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <f>blueprint!B16-blueprint!$B$2</f>
+        <v>265</v>
+      </c>
+      <c r="C16">
+        <f>(-1)*(blueprint!D16-blueprint!$D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>blueprint!C16-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f>blueprint!A17</f>
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <f>blueprint!B17-blueprint!$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>(-1)*(blueprint!D17-blueprint!$D$2)</f>
+        <v>90.499999999999986</v>
+      </c>
+      <c r="D17">
+        <f>blueprint!C17-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f>blueprint!A18</f>
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f>blueprint!B18-blueprint!$B$2</f>
+        <v>132.5</v>
+      </c>
+      <c r="C18">
+        <f>(-1)*(blueprint!D18-blueprint!$D$2)</f>
+        <v>90.499999999999986</v>
+      </c>
+      <c r="D18">
+        <f>blueprint!C18-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f>blueprint!A19</f>
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <f>blueprint!B19-blueprint!$B$2</f>
+        <v>265</v>
+      </c>
+      <c r="C19">
+        <f>(-1)*(blueprint!D19-blueprint!$D$2)</f>
+        <v>90.499999999999986</v>
+      </c>
+      <c r="D19">
+        <f>blueprint!C19-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f>blueprint!A20</f>
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <f>blueprint!B20-blueprint!$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>(-1)*(blueprint!D20-blueprint!$D$2)</f>
+        <v>181</v>
+      </c>
+      <c r="D20">
+        <f>blueprint!C20-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f>blueprint!A21</f>
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <f>blueprint!B21-blueprint!$B$2</f>
+        <v>132.5</v>
+      </c>
+      <c r="C21">
+        <f>(-1)*(blueprint!D21-blueprint!$D$2)</f>
+        <v>181</v>
+      </c>
+      <c r="D21">
+        <f>blueprint!C21-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f>blueprint!A22</f>
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <f>blueprint!B22-blueprint!$B$2</f>
+        <v>265</v>
+      </c>
+      <c r="C22">
+        <f>(-1)*(blueprint!D22-blueprint!$D$2)</f>
+        <v>181</v>
+      </c>
+      <c r="D22">
+        <f>blueprint!C22-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f>blueprint!A23</f>
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <f>blueprint!B23-blueprint!$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>(-1)*(blueprint!D23-blueprint!$D$2)</f>
+        <v>271.5</v>
+      </c>
+      <c r="D23">
+        <f>blueprint!C23-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f>blueprint!A24</f>
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <f>blueprint!B24-blueprint!$B$2</f>
+        <v>132.5</v>
+      </c>
+      <c r="C24">
+        <f>(-1)*(blueprint!D24-blueprint!$D$2)</f>
+        <v>271.5</v>
+      </c>
+      <c r="D24">
+        <f>blueprint!C24-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f>blueprint!A25</f>
+        <v>501</v>
+      </c>
+      <c r="B25">
+        <f>blueprint!B25-blueprint!$B$2</f>
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <f>(-1)*(blueprint!D25-blueprint!$D$2)</f>
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <f>blueprint!C25-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f>blueprint!A26</f>
+        <v>502</v>
+      </c>
+      <c r="B26">
+        <f>blueprint!B26-blueprint!$B$2</f>
+        <v>196.5</v>
+      </c>
+      <c r="C26">
+        <f>(-1)*(blueprint!D26-blueprint!$D$2)</f>
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <f>blueprint!C26-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f>blueprint!A27</f>
+        <v>503</v>
+      </c>
+      <c r="B27">
+        <f>blueprint!B27-blueprint!$B$2</f>
+        <v>329</v>
+      </c>
+      <c r="C27">
+        <f>(-1)*(blueprint!D27-blueprint!$D$2)</f>
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <f>blueprint!C27-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f>blueprint!A28</f>
+        <v>504</v>
+      </c>
+      <c r="B28">
+        <f>blueprint!B28-blueprint!$B$2</f>
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <f>(-1)*(blueprint!D28-blueprint!$D$2)</f>
+        <v>133.5</v>
+      </c>
+      <c r="D28">
+        <f>blueprint!C28-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f>blueprint!A29</f>
+        <v>505</v>
+      </c>
+      <c r="B29">
+        <f>blueprint!B29-blueprint!$B$2</f>
+        <v>196.5</v>
+      </c>
+      <c r="C29">
+        <f>(-1)*(blueprint!D29-blueprint!$D$2)</f>
+        <v>133.5</v>
+      </c>
+      <c r="D29">
+        <f>blueprint!C29-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f>blueprint!A30</f>
+        <v>506</v>
+      </c>
+      <c r="B30">
+        <f>blueprint!B30-blueprint!$B$2</f>
+        <v>329</v>
+      </c>
+      <c r="C30">
+        <f>(-1)*(blueprint!D30-blueprint!$D$2)</f>
+        <v>133.5</v>
+      </c>
+      <c r="D30">
+        <f>blueprint!C30-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f>blueprint!A31</f>
+        <v>507</v>
+      </c>
+      <c r="B31">
+        <f>blueprint!B31-blueprint!$B$2</f>
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <f>(-1)*(blueprint!D31-blueprint!$D$2)</f>
+        <v>224</v>
+      </c>
+      <c r="D31">
+        <f>blueprint!C31-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f>blueprint!A32</f>
+        <v>508</v>
+      </c>
+      <c r="B32">
+        <f>blueprint!B32-blueprint!$B$2</f>
+        <v>196.5</v>
+      </c>
+      <c r="C32">
+        <f>(-1)*(blueprint!D32-blueprint!$D$2)</f>
+        <v>224</v>
+      </c>
+      <c r="D32">
+        <f>blueprint!C32-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f>blueprint!A33</f>
+        <v>509</v>
+      </c>
+      <c r="B33">
+        <f>blueprint!B33-blueprint!$B$2</f>
+        <v>329</v>
+      </c>
+      <c r="C33">
+        <f>(-1)*(blueprint!D33-blueprint!$D$2)</f>
+        <v>224</v>
+      </c>
+      <c r="D33">
+        <f>blueprint!C33-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f>blueprint!A34</f>
+        <v>510</v>
+      </c>
+      <c r="B34">
+        <f>blueprint!B34-blueprint!$B$2</f>
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <f>(-1)*(blueprint!D34-blueprint!$D$2)</f>
+        <v>314.5</v>
+      </c>
+      <c r="D34">
+        <f>blueprint!C34-blueprint!$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f>blueprint!A35</f>
+        <v>511</v>
+      </c>
+      <c r="B35">
+        <f>blueprint!B35-blueprint!$B$2</f>
+        <v>196.5</v>
+      </c>
+      <c r="C35">
+        <f>(-1)*(blueprint!D35-blueprint!$D$2)</f>
+        <v>314.5</v>
+      </c>
+      <c r="D35">
+        <f>blueprint!C35-blueprint!$C$2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -653,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B3F937-8F90-4B76-8130-BD326272F61F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-197.5</v>
+        <v>-196.5</v>
       </c>
       <c r="C2">
         <v>-268.625</v>
@@ -691,7 +1087,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B3">
         <v>-184.36999499999999</v>
@@ -705,7 +1101,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B4">
         <v>-0.99095900000000003</v>
@@ -719,7 +1115,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B5">
         <v>184.36999499999999</v>
@@ -733,7 +1129,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="B6">
         <v>-184.36999499999999</v>
@@ -747,7 +1143,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="B7">
         <v>-0.63173500000000005</v>
@@ -761,7 +1157,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="B8">
         <v>184.36999499999999</v>
@@ -775,7 +1171,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="B9">
         <v>-184.36999499999999</v>
@@ -789,7 +1185,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="B10">
         <v>-5.850168</v>
@@ -803,7 +1199,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="B11">
         <v>184.36999499999999</v>
@@ -817,7 +1213,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="B12">
         <v>-184.36999499999999</v>
@@ -831,7 +1227,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="B13">
         <v>51.869999</v>
@@ -841,6 +1237,314 @@
       </c>
       <c r="D13">
         <v>-135.15306100000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>-196.5</v>
+      </c>
+      <c r="C14">
+        <v>-268.625</v>
+      </c>
+      <c r="D14">
+        <v>213.34693899999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>-64</v>
+      </c>
+      <c r="C15">
+        <v>-268.625</v>
+      </c>
+      <c r="D15">
+        <v>213.34693899999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>68.5</v>
+      </c>
+      <c r="C16">
+        <v>-268.625</v>
+      </c>
+      <c r="D16">
+        <v>213.34693899999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>-196.5</v>
+      </c>
+      <c r="C17">
+        <v>-268.625</v>
+      </c>
+      <c r="D17">
+        <v>122.84693900000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>-64</v>
+      </c>
+      <c r="C18">
+        <v>-268.625</v>
+      </c>
+      <c r="D18">
+        <v>122.84693900000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>68.5</v>
+      </c>
+      <c r="C19">
+        <v>-268.625</v>
+      </c>
+      <c r="D19">
+        <v>122.84693900000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>-196.5</v>
+      </c>
+      <c r="C20">
+        <v>-268.625</v>
+      </c>
+      <c r="D20">
+        <v>32.346938999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>-64</v>
+      </c>
+      <c r="C21">
+        <v>-268.625</v>
+      </c>
+      <c r="D21">
+        <v>32.346938999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>68.5</v>
+      </c>
+      <c r="C22">
+        <v>-268.625</v>
+      </c>
+      <c r="D22">
+        <v>32.346938999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>-196.5</v>
+      </c>
+      <c r="C23">
+        <v>-268.625</v>
+      </c>
+      <c r="D23">
+        <v>-58.153061000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>-64</v>
+      </c>
+      <c r="C24">
+        <v>-268.625</v>
+      </c>
+      <c r="D24">
+        <v>-58.153061000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>501</v>
+      </c>
+      <c r="B25">
+        <v>-132.5</v>
+      </c>
+      <c r="C25">
+        <v>-268.625</v>
+      </c>
+      <c r="D25">
+        <v>170.34693899999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>502</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-268.625</v>
+      </c>
+      <c r="D26">
+        <v>170.34693899999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>503</v>
+      </c>
+      <c r="B27">
+        <v>132.5</v>
+      </c>
+      <c r="C27">
+        <v>-268.625</v>
+      </c>
+      <c r="D27">
+        <v>170.34693899999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>504</v>
+      </c>
+      <c r="B28">
+        <v>-132.5</v>
+      </c>
+      <c r="C28">
+        <v>-268.625</v>
+      </c>
+      <c r="D28">
+        <v>79.846939000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>505</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>-268.625</v>
+      </c>
+      <c r="D29">
+        <v>79.846939000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>506</v>
+      </c>
+      <c r="B30">
+        <v>132.5</v>
+      </c>
+      <c r="C30">
+        <v>-268.625</v>
+      </c>
+      <c r="D30">
+        <v>79.846939000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>507</v>
+      </c>
+      <c r="B31">
+        <v>-132.5</v>
+      </c>
+      <c r="C31">
+        <v>-268.625</v>
+      </c>
+      <c r="D31">
+        <v>-10.653060999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>508</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>-268.625</v>
+      </c>
+      <c r="D32">
+        <v>-10.653060999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>509</v>
+      </c>
+      <c r="B33">
+        <v>132.5</v>
+      </c>
+      <c r="C33">
+        <v>-268.625</v>
+      </c>
+      <c r="D33">
+        <v>-10.653060999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>510</v>
+      </c>
+      <c r="B34">
+        <v>-132.5</v>
+      </c>
+      <c r="C34">
+        <v>-268.625</v>
+      </c>
+      <c r="D34">
+        <v>-101.15306099999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>511</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>-268.625</v>
+      </c>
+      <c r="D35">
+        <v>-101.15306099999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/setups/poly_electrolyte/config/Opentrons coordinates.xlsx
+++ b/src/setups/poly_electrolyte/config/Opentrons coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leongcj\Desktop\Astar_git\control-lab-le\src\setups\poly_electrolyte\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD08C9FE-0A36-4776-BDDC-4D61E5B67E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEED3423-187E-43D7-8D55-47F8425D4FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{696EA749-D632-4547-ACEE-F7E2B618F858}"/>
   </bookViews>
@@ -409,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48172A5-D4B7-4DDD-BAB2-C2ED829E5B7A}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
